--- a/01_基本設計書/00_基本設計書一覧.xlsx
+++ b/01_基本設計書/00_基本設計書一覧.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\backdoor\01_基本設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC399F84-7A5A-4610-B6F4-83CC7E984F5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A63406-8E7E-4D8D-A174-AC0A0C7BF020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B152A9D6-6AA5-43DC-AECD-06110ADD74EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B152A9D6-6AA5-43DC-AECD-06110ADD74EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
   <si>
     <t>開発優先順位
 A-1：最優先
@@ -1141,6 +1138,10 @@
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>t</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2277,24 +2278,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0148103B-014F-4969-B701-5475E30E5B84}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="30.69921875" customWidth="1"/>
+    <col min="2" max="2" width="30.75" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" customWidth="1"/>
-    <col min="8" max="8" width="47.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="47.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -2305,7 +2306,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="66"/>
     </row>
-    <row r="2" spans="1:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C7" s="25"/>
       <c r="D7" s="26"/>
       <c r="E7" s="27"/>
@@ -2439,7 +2440,7 @@
       <c r="H7" s="30"/>
       <c r="I7" s="67"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2491,7 +2492,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
       <c r="E11" s="27"/>
@@ -2523,8 +2524,11 @@
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
       <c r="I11" s="67"/>
-    </row>
-    <row r="12" spans="1:10" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="73" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C12" s="74">
         <v>8</v>
       </c>
@@ -2545,7 +2549,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C13" s="74"/>
       <c r="D13" s="75"/>
       <c r="E13" s="76"/>
@@ -2562,7 +2566,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C14" s="84"/>
       <c r="D14" s="85"/>
       <c r="E14" s="86"/>
@@ -2579,7 +2583,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
       <c r="E15" s="27"/>
@@ -2588,7 +2592,7 @@
       <c r="H15" s="30"/>
       <c r="I15" s="67"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>8</v>
       </c>
@@ -2616,7 +2620,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>9</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>10</v>
       </c>
@@ -2664,7 +2668,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>11</v>
       </c>
@@ -2688,7 +2692,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C20" s="25"/>
       <c r="D20" s="26"/>
       <c r="E20" s="27"/>
@@ -2697,7 +2701,7 @@
       <c r="H20" s="30"/>
       <c r="I20" s="67"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>12</v>
       </c>
@@ -2725,7 +2729,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>13</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>14</v>
       </c>
@@ -2773,7 +2777,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C24" s="25"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -2782,7 +2786,7 @@
       <c r="H24" s="30"/>
       <c r="I24" s="67"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>15</v>
       </c>
@@ -2810,7 +2814,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>16</v>
       </c>
@@ -2834,7 +2838,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>17</v>
       </c>
@@ -2858,7 +2862,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>18</v>
       </c>
@@ -2882,7 +2886,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>19</v>
       </c>
@@ -2906,7 +2910,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C30" s="25"/>
       <c r="D30" s="26"/>
       <c r="E30" s="27"/>
@@ -2915,7 +2919,7 @@
       <c r="H30" s="30"/>
       <c r="I30" s="67"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>20</v>
       </c>
@@ -2943,7 +2947,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>21</v>
       </c>
@@ -2968,7 +2972,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>22</v>
       </c>
@@ -2992,7 +2996,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>23</v>
       </c>
@@ -3016,7 +3020,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C35" s="25"/>
       <c r="D35" s="26"/>
       <c r="E35" s="27"/>
@@ -3359,7 +3363,7 @@
       </c>
       <c r="I52" s="70"/>
     </row>
-    <row r="53" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C53" s="58"/>
       <c r="D53" s="59"/>
       <c r="E53" s="59" t="s">
@@ -3376,7 +3380,7 @@
       </c>
       <c r="I53" s="71"/>
     </row>
-    <row r="54" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C54" s="58"/>
       <c r="D54" s="59"/>
       <c r="E54" s="59" t="s">
@@ -3393,7 +3397,7 @@
       </c>
       <c r="I54" s="71"/>
     </row>
-    <row r="55" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C55" s="58"/>
       <c r="D55" s="59"/>
       <c r="E55" s="59" t="s">
@@ -3410,7 +3414,7 @@
       </c>
       <c r="I55" s="71"/>
     </row>
-    <row r="56" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C56" s="58"/>
       <c r="D56" s="59"/>
       <c r="E56" s="59"/>
@@ -3425,7 +3429,7 @@
       </c>
       <c r="I56" s="71"/>
     </row>
-    <row r="57" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C57" s="58"/>
       <c r="D57" s="59"/>
       <c r="E57" s="59"/>
@@ -3440,7 +3444,7 @@
       </c>
       <c r="I57" s="71"/>
     </row>
-    <row r="58" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C58" s="25"/>
       <c r="D58" s="26"/>
       <c r="E58" s="27"/>
@@ -3449,7 +3453,7 @@
       <c r="H58" s="30"/>
       <c r="I58" s="67"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>41</v>
       </c>
@@ -3473,7 +3477,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>42</v>
       </c>
@@ -3493,7 +3497,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>43</v>
       </c>
@@ -3513,7 +3517,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>44</v>
       </c>
@@ -3533,7 +3537,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>45</v>
       </c>
@@ -3553,7 +3557,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>46</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>47</v>
       </c>
@@ -3593,7 +3597,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>48</v>
       </c>
